--- a/pingfen.xlsx
+++ b/pingfen.xlsx
@@ -218,28 +218,28 @@
     <t>中心机房</t>
   </si>
   <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>运维VPN客户端与SSL VPN之间的运维通信信道</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>PC业务终端与普洱公积金综合服务平台之间的通信信道</t>
+  </si>
+  <si>
+    <t>互联网移动端微信小程序与普洱公积金综合服务平台之间的通信信道</t>
+  </si>
+  <si>
+    <t>PC业务终端与普洱公积金综合服务平台后台管理系统之间的通信信道</t>
+  </si>
+  <si>
+    <t>综合数据库集群服务器1</t>
+  </si>
+  <si>
     <t>×</t>
-  </si>
-  <si>
-    <t>运维VPN客户端与SSL VPN之间的运维通信信道</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>PC业务终端与普洱公积金综合服务平台之间的通信信道</t>
-  </si>
-  <si>
-    <t>互联网移动端微信小程序与普洱公积金综合服务平台之间的通信信道</t>
-  </si>
-  <si>
-    <t>PC业务终端与普洱公积金综合服务平台后台管理系统之间的通信信道</t>
-  </si>
-  <si>
-    <t>综合数据库集群服务器1</t>
   </si>
   <si>
     <t>综合数据库集群服务器2</t>
@@ -1484,17 +1484,17 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -1699,40 +1699,40 @@
         <v>19</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
@@ -1783,40 +1783,40 @@
         <v>4</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
@@ -1867,40 +1867,40 @@
         <v>19</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -1951,40 +1951,40 @@
         <v>4</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
@@ -2035,40 +2035,40 @@
         <v>18</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
@@ -2207,7 +2207,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -2447,130 +2447,130 @@
         <v>19</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="W18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="X18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Y18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Z18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AA18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AB18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AC18" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AD18" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AE18" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AF18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AG18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AH18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AI18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AJ18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AK18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AL18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AM18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AN18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AO18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AP18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AQ18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AR18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AS18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AT18" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AU18" s="8"/>
       <c r="AV18" s="8"/>
@@ -2591,130 +2591,130 @@
         <v>19</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="W19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="X19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Y19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Z19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AB19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AC19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AD19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AE19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AF19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AG19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AH19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AI19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AJ19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AK19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AL19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AM19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AN19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AO19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AP19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AQ19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AR19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AS19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AT19" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AU19" s="8"/>
       <c r="AV19" s="8"/>
@@ -2735,130 +2735,130 @@
         <v>4</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="U20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="W20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="X20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Z20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AC20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AD20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AE20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AF20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AG20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AH20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AI20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AJ20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AK20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AL20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AM20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AN20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AO20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AP20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AQ20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AR20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AS20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AT20" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AU20" s="8"/>
       <c r="AV20" s="8"/>
@@ -2879,130 +2879,130 @@
         <v>4</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AC21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AE21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AH21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AI21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AJ21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AK21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AL21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AM21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AN21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AO21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AP21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AQ21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AR21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AS21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AT21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AU21" s="8"/>
       <c r="AV21" s="8"/>
@@ -3023,130 +3023,130 @@
         <v>4</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="X22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Y22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Z22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AC22" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AD22" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AE22" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AF22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AG22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AH22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AI22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AJ22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AK22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AL22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AM22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AN22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AO22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AP22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AQ22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AR22" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AS22" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AT22" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AU22" s="8"/>
       <c r="AV22" s="8"/>
@@ -3167,130 +3167,130 @@
         <v>4</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="U23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="W23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="X23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Y23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Z23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AC23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AD23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AE23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AF23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AG23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AH23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AI23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AJ23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AK23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AL23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AM23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AN23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AO23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AP23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AQ23" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AR23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AS23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AT23" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AU23" s="8"/>
       <c r="AV23" s="8"/>
@@ -3613,13 +3613,13 @@
         <v>19</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -3679,13 +3679,13 @@
         <v>4</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -3745,13 +3745,13 @@
         <v>4</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -3811,13 +3811,13 @@
         <v>19</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -3877,13 +3877,13 @@
         <v>19</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -3943,13 +3943,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -4009,13 +4009,13 @@
         <v>4</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
@@ -4075,13 +4075,13 @@
         <v>4</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
